--- a/Results/ml_0012_NYC_taxi_fare/ML_0012_NYC_taxi_fare.xlsx
+++ b/Results/ml_0012_NYC_taxi_fare/ML_0012_NYC_taxi_fare.xlsx
@@ -17,6 +17,36 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C19">
+      <text>
+        <t xml:space="preserve">{'max_depth': 10, 'learning_rate': 0.03, 'n_estimators': 4096, 'subsample': 0.8744618084061554, 'colsample_bytree': 0.7883964168376899, 'gamma': 3.1302144501635594, 'min_child_weight': 6, 'reg_alpha': 0.2844085329762259, 'reg_lambda': 0.7302911386726469}
+	-Reza Taheri</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C12">
+      <text>
+        <t xml:space="preserve">{'max_depth': 10, 'learning_rate': 0.026001822371177843, 'n_estimators': 800, 'subsample': 0.7921597192239884, 'colsample_bytree': 0.7672929407070985, 'gamma': 1.277591120136154, 'min_child_weight': 9, 'reg_alpha': 0.5439591069748637, 'reg_lambda': 0.12518479257954246}
+	-Reza Taheri</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C11">
+      <text>
+        <t xml:space="preserve">{'max_depth': 10, 'learning_rate': 0.03295689421419053, 'n_estimators': 690, 'subsample': 0.8744618084061554, 'colsample_bytree': 0.7883964168376899, 'gamma': 3.1302144501635594, 'min_child_weight': 6, 'reg_alpha': 0.2844085329762259, 'reg_lambda': 0.7302911386726469}
+	-Reza Taheri</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C17">
+      <text>
+        <t xml:space="preserve">{'max_depth': 10, 'learning_rate': 0.03295689421419053, 'n_estimators': 2048, 'subsample': 0.8744618084061554, 'colsample_bytree': 0.7883964168376899, 'gamma': 3.1302144501635594, 'min_child_weight': 6, 'reg_alpha': 0.2844085329762259, 'reg_lambda': 0.7302911386726469}
+	-Reza Taheri</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C18">
+      <text>
+        <t xml:space="preserve">{'max_depth': 9, 'learning_rate': 0.03, 'n_estimators': 4096, 'subsample': 0.8744618084061554, 'colsample_bytree': 0.7883964168376899, 'gamma': 3.1302144501635594, 'min_child_weight': 6, 'reg_alpha': 0.2844085329762259, 'reg_lambda': 0.7302911386726469}
+	-Reza Taheri</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="I6">
       <text>
         <t xml:space="preserve">Input: ['passenger_count', 'pickup_datetime_Year', 'pickup_datetime_Month', 'pickup_datetime_Day', 'pickup_datetime_DayOfWeek', 'pickup_datetime_Hour', 'pickup_datetime_Minute', 'dropoff_distance_to_jfk', 'dropoff_distance_to_lga', 'pickup_distance_to_jfk', 'pickup_distance_to_lga', 'distance_km_Log', 'dropoff_distance_to_met_Log', 'dropoff_distance_to_wtc_Log', 'pickup_distance_to_ewr_Log', 'pickup_distance_to_met_Log', "distance_km", "dropoff_distance_to_met", "dropoff_distance_to_wtc",
@@ -30,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>ml_0012_NYC_taxi_fare_prediction.ipynb</t>
   </si>
@@ -131,9 +161,6 @@
     <t>On comment 23</t>
   </si>
   <si>
-    <t>447 in leaderboard (total 1485)</t>
-  </si>
-  <si>
     <t>2min 15s GPU</t>
   </si>
   <si>
@@ -143,16 +170,88 @@
     <t>2min 33s GPU</t>
   </si>
   <si>
-    <t>33M</t>
+    <t>33M 60%</t>
   </si>
   <si>
     <t>4min 30s GPU</t>
   </si>
   <si>
-    <t>44M</t>
+    <t>44M 80%</t>
   </si>
   <si>
     <t>6min GPU</t>
+  </si>
+  <si>
+    <t>mod 1</t>
+  </si>
+  <si>
+    <t>4min 45s GPU</t>
+  </si>
+  <si>
+    <t>mod 2</t>
+  </si>
+  <si>
+    <t>7min 18s GPU</t>
+  </si>
+  <si>
+    <t>352 in leaderboard (total 1485)</t>
+  </si>
+  <si>
+    <t>mod 3</t>
+  </si>
+  <si>
+    <t>8min 19s GPU</t>
+  </si>
+  <si>
+    <t>7min 6s GPU</t>
+  </si>
+  <si>
+    <t>Type B</t>
+  </si>
+  <si>
+    <t>207 in leaderboard (total 1485)</t>
+  </si>
+  <si>
+    <t>2min 22s GPU</t>
+  </si>
+  <si>
+    <t>2min 53s GPU</t>
+  </si>
+  <si>
+    <t>8min 12s GPU</t>
+  </si>
+  <si>
+    <t>13min 34s GPU</t>
+  </si>
+  <si>
+    <t>181 in leaderboard (total 1485)</t>
+  </si>
+  <si>
+    <t>4min 28s GPU</t>
+  </si>
+  <si>
+    <t>205 in leaderboard (total 1485)</t>
+  </si>
+  <si>
+    <t>17min 56s GPU</t>
+  </si>
+  <si>
+    <t>mod 2 max_depth=10, lr=0.032</t>
+  </si>
+  <si>
+    <t>15min 14s GPU</t>
+  </si>
+  <si>
+    <t>mod 2 n_estimators=8192</t>
+  </si>
+  <si>
+    <t>24min 29s GPU</t>
+  </si>
+  <si>
+    <t>mod 2 max_depth=10, lr=0.032, n_estimators=8192</t>
+  </si>
+  <si>
+    <t>27min 57s GPU</t>
   </si>
   <si>
     <t>Idea</t>
@@ -164,10 +263,16 @@
     <t>Learnings</t>
   </si>
   <si>
+    <t>Filter train data range base on test data</t>
+  </si>
+  <si>
     <t>Add weather data &amp; check if bad weather condition effect fare</t>
   </si>
   <si>
     <t>In bad weather conditions people who take taxi get increased(supply and demand)</t>
+  </si>
+  <si>
+    <t>Correlation between weather columns and fare_amount = 0</t>
   </si>
   <si>
     <t>Calculate pick up to drop off drivable distance with NYC map</t>
@@ -191,7 +296,19 @@
     <t>more data == better result</t>
   </si>
   <si>
+    <t>I achieved one of the best score with 30% of data and best score with 60%</t>
+  </si>
+  <si>
     <t>train on whole data</t>
+  </si>
+  <si>
+    <t>Prevent overfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log for normal distribution </t>
+  </si>
+  <si>
+    <t>Not good, The original columns are more effective</t>
   </si>
 </sst>
 </file>
@@ -201,7 +318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d-mmmm-yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -231,6 +348,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -238,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +403,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
@@ -288,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -334,21 +478,80 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -571,11 +774,11 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="18.13"/>
     <col customWidth="1" min="2" max="2" width="14.88"/>
-    <col customWidth="1" min="3" max="3" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="39.63"/>
     <col customWidth="1" min="4" max="4" width="16.5"/>
     <col customWidth="1" min="6" max="6" width="18.88"/>
     <col customWidth="1" min="7" max="7" width="18.13"/>
-    <col customWidth="1" min="9" max="9" width="32.75"/>
+    <col customWidth="1" min="9" max="9" width="17.38"/>
     <col customWidth="1" min="10" max="10" width="26.13"/>
   </cols>
   <sheetData>
@@ -1028,7 +1231,7 @@
       <c r="F11" s="6">
         <v>3.45492815971374</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>3.20131</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -1085,9 +1288,7 @@
       <c r="I12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="J12" s="6"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1128,13 +1329,13 @@
         <v>3.11973</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -1176,7 +1377,7 @@
         <v>3.12403</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -1209,8 +1410,8 @@
       <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>37</v>
+      <c r="D15" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="6">
         <v>3.36215662956237</v>
@@ -1222,7 +1423,7 @@
         <v>3.14248</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>28</v>
@@ -1255,8 +1456,8 @@
       <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>39</v>
+      <c r="D16" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="6">
         <v>3.39941453933715</v>
@@ -1268,7 +1469,7 @@
         <v>3.16683</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>28</v>
@@ -1292,16 +1493,34 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45819.0</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.99551439285278</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3.50745224952697</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3.13721</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -1320,340 +1539,564 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
+      <c r="A18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19">
+        <v>45819.0</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="21">
+        <v>2.98039078712463</v>
+      </c>
+      <c r="F18" s="21">
+        <v>3.51375007629394</v>
+      </c>
+      <c r="G18" s="22">
+        <v>3.10328</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
     </row>
     <row r="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
+      <c r="A19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19">
+        <v>45819.0</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="24">
+        <v>2.75201392173767</v>
+      </c>
+      <c r="F19" s="24">
+        <v>3.511887550354</v>
+      </c>
+      <c r="G19" s="21">
+        <v>3.14286</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
     </row>
     <row r="20">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
+      <c r="A20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="19">
+        <v>45820.0</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2.98127794265747</v>
+      </c>
+      <c r="F20" s="21">
+        <v>3.51406955718994</v>
+      </c>
+      <c r="G20" s="25">
+        <v>2.98895</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
     </row>
     <row r="21">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
+      <c r="A21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="19">
+        <v>45820.0</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="21">
+        <v>3.29774093627929</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3.52548432350158</v>
+      </c>
+      <c r="G21" s="22">
+        <v>2.99625</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
     </row>
     <row r="22">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
+      <c r="A22" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19">
+        <v>45820.0</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3.29331493377685</v>
+      </c>
+      <c r="F22" s="21">
+        <v>3.52619457244873</v>
+      </c>
+      <c r="G22" s="24">
+        <v>3.12767</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
     </row>
     <row r="23">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
+      <c r="A23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="19">
+        <v>45820.0</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="21">
+        <v>2.96859383583068</v>
+      </c>
+      <c r="F23" s="21">
+        <v>3.51683950424194</v>
+      </c>
+      <c r="G23" s="24">
+        <v>3.12029</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
     </row>
     <row r="24">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
+      <c r="A24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="28">
+        <v>45820.0</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="21">
+        <v>3.10963177680969</v>
+      </c>
+      <c r="F24" s="21">
+        <v>3.5175392627716</v>
+      </c>
+      <c r="G24" s="25">
+        <v>2.97307</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
+      <c r="A25" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="28">
+        <v>45820.0</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="21">
+        <v>3.36295366287231</v>
+      </c>
+      <c r="F25" s="21">
+        <v>3.54157710075378</v>
+      </c>
+      <c r="G25" s="24">
+        <v>2.98255</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
+      <c r="A26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="28">
+        <v>45820.0</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3.16631126403808</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3.52174568176269</v>
+      </c>
+      <c r="G26" s="6">
+        <v>3.01343</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
     </row>
     <row r="27">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
+      <c r="A27" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="28">
+        <v>45820.0</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="21">
+        <v>2.93283152580261</v>
+      </c>
+      <c r="F27" s="21">
+        <v>3.51170897483825</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2.97711</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
     </row>
     <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
+      <c r="A28" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="28">
+        <v>45820.0</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="21">
+        <v>2.91767477989196</v>
+      </c>
+      <c r="F28" s="21">
+        <v>3.5192220211029</v>
+      </c>
+      <c r="G28" s="24">
+        <v>2.97293</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
+      <c r="A29" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="28">
+        <v>45820.0</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="21">
+        <v>2.721189</v>
+      </c>
+      <c r="F29" s="21">
+        <v>3.516177</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2.98888</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
     </row>
     <row r="30">
       <c r="A30" s="8"/>
@@ -28864,106 +29307,175 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="47.13"/>
     <col customWidth="1" min="2" max="2" width="62.88"/>
-    <col customWidth="1" min="3" max="3" width="53.5"/>
+    <col customWidth="1" min="3" max="3" width="56.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
+      <c r="A1" s="33" t="s">
+        <v>64</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>42</v>
+      <c r="B1" s="33" t="s">
+        <v>65</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>43</v>
+      <c r="C1" s="33" t="s">
+        <v>66</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>44</v>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="s">
+        <v>67</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>45</v>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="35" t="s">
+        <v>68</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="19" t="s">
-        <v>46</v>
+      <c r="B3" s="35" t="s">
+        <v>69</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>47</v>
+      <c r="C3" s="36" t="s">
+        <v>70</v>
       </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>48</v>
+      <c r="A4" s="38" t="s">
+        <v>71</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>49</v>
+      <c r="B4" s="38" t="s">
+        <v>72</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>50</v>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="s">
+        <v>73</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>51</v>
+      <c r="B5" s="26" t="s">
+        <v>74</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>52</v>
+      <c r="C5" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>53</v>
+      <c r="A6" s="26" t="s">
+        <v>76</v>
       </c>
+      <c r="B6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
